--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.164110538044052</v>
+        <v>0.1521215168462522</v>
       </c>
       <c r="C2">
-        <v>0.3990739875612785</v>
+        <v>0.4582899675117284</v>
       </c>
       <c r="D2">
-        <v>0.2717830387705941</v>
+        <v>0.4263240185482037</v>
       </c>
       <c r="E2">
-        <v>0.5213281488377489</v>
+        <v>0.6529349267332876</v>
       </c>
       <c r="F2">
-        <v>0.5059450074181695</v>
+        <v>0.6492376802903603</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05421946485828021</v>
+        <v>0.7108428339446126</v>
       </c>
       <c r="C3">
-        <v>0.3743046632812781</v>
+        <v>0.8754549345972755</v>
       </c>
       <c r="D3">
-        <v>0.2039986448588482</v>
+        <v>4.635275670739081</v>
       </c>
       <c r="E3">
-        <v>0.4516620914564872</v>
+        <v>2.152969036177502</v>
       </c>
       <c r="F3">
-        <v>0.4589478484100895</v>
+        <v>2.077908663797673</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2108166877076684</v>
+        <v>0.2895745887097694</v>
       </c>
       <c r="C4">
-        <v>0.3911061312796325</v>
+        <v>1.240496959324251</v>
       </c>
       <c r="D4">
-        <v>0.3070625528270741</v>
+        <v>7.595578471819104</v>
       </c>
       <c r="E4">
-        <v>0.5541322521087129</v>
+        <v>2.756007705326512</v>
       </c>
       <c r="F4">
-        <v>0.5251188635552846</v>
+        <v>2.802350277210764</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1396966153068137</v>
+        <v>0.3238621390752919</v>
       </c>
       <c r="C5">
-        <v>0.3936428606436134</v>
+        <v>1.24951236653669</v>
       </c>
       <c r="D5">
-        <v>0.2364141445760344</v>
+        <v>8.076301587591825</v>
       </c>
       <c r="E5">
-        <v>0.4862243767809615</v>
+        <v>2.841883457777927</v>
       </c>
       <c r="F5">
-        <v>0.477822913957676</v>
+        <v>2.886823850443001</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2055713184881964</v>
+        <v>0.3759505404624885</v>
       </c>
       <c r="C6">
-        <v>0.3985724376705788</v>
+        <v>1.26396980525482</v>
       </c>
       <c r="D6">
-        <v>0.2720016382854029</v>
+        <v>7.453626575147394</v>
       </c>
       <c r="E6">
-        <v>0.521537763048279</v>
+        <v>2.730133069128205</v>
       </c>
       <c r="F6">
-        <v>0.4924484944702406</v>
+        <v>2.7648986388152</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1942106637073617</v>
+        <v>0.341963470112216</v>
       </c>
       <c r="C7">
-        <v>0.387649315436281</v>
+        <v>1.389240385587007</v>
       </c>
       <c r="D7">
-        <v>0.2468445352345524</v>
+        <v>7.894718527440571</v>
       </c>
       <c r="E7">
-        <v>0.4968345149388803</v>
+        <v>2.809754175624724</v>
       </c>
       <c r="F7">
-        <v>0.4705617144037521</v>
+        <v>2.851546062215722</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2291527386783319</v>
+        <v>0.2502161759457917</v>
       </c>
       <c r="C8">
-        <v>0.4681846348907073</v>
+        <v>1.450552389820832</v>
       </c>
       <c r="D8">
-        <v>0.4295473340169714</v>
+        <v>8.661950858152869</v>
       </c>
       <c r="E8">
-        <v>0.6553986069690501</v>
+        <v>2.943119239540401</v>
       </c>
       <c r="F8">
-        <v>0.6329305875422011</v>
+        <v>2.998369880143227</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1988996458003433</v>
+        <v>0.298823989417038</v>
       </c>
       <c r="C9">
-        <v>0.3843400265558883</v>
+        <v>1.462549152856695</v>
       </c>
       <c r="D9">
-        <v>0.2555110781799029</v>
+        <v>8.060417993749848</v>
       </c>
       <c r="E9">
-        <v>0.5054810364196691</v>
+        <v>2.839087528370664</v>
       </c>
       <c r="F9">
-        <v>0.4799444513195539</v>
+        <v>2.886770852395387</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2230811651554301</v>
+        <v>0.2664666779633617</v>
       </c>
       <c r="C10">
-        <v>0.4680079175101406</v>
+        <v>1.439819604875121</v>
       </c>
       <c r="D10">
-        <v>0.317808723921491</v>
+        <v>8.41458104426475</v>
       </c>
       <c r="E10">
-        <v>0.563745265098955</v>
+        <v>2.900789727688781</v>
       </c>
       <c r="F10">
-        <v>0.5359006281229358</v>
+        <v>2.953443758313014</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1438020275816372</v>
+        <v>0.1601520388162171</v>
       </c>
       <c r="C11">
-        <v>0.4686030929410226</v>
+        <v>1.336129065843578</v>
       </c>
       <c r="D11">
-        <v>0.3092445493099785</v>
+        <v>8.162906777384929</v>
       </c>
       <c r="E11">
-        <v>0.556097607718266</v>
+        <v>2.857080113924867</v>
       </c>
       <c r="F11">
-        <v>0.5574610967059246</v>
+        <v>2.916699070887114</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1521215168462522</v>
+        <v>0.164110538044052</v>
       </c>
       <c r="C2">
-        <v>0.4582899675117284</v>
+        <v>0.3990739875612785</v>
       </c>
       <c r="D2">
-        <v>0.4263240185482037</v>
+        <v>0.2717830387705941</v>
       </c>
       <c r="E2">
-        <v>0.6529349267332876</v>
+        <v>0.5213281488377489</v>
       </c>
       <c r="F2">
-        <v>0.6492376802903603</v>
+        <v>0.5059450074181695</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7108428339446126</v>
+        <v>0.1521215168462522</v>
       </c>
       <c r="C3">
-        <v>0.8754549345972755</v>
+        <v>0.4582899675117284</v>
       </c>
       <c r="D3">
-        <v>4.635275670739081</v>
+        <v>0.4263240185482037</v>
       </c>
       <c r="E3">
-        <v>2.152969036177502</v>
+        <v>0.6529349267332876</v>
       </c>
       <c r="F3">
-        <v>2.077908663797673</v>
+        <v>0.6492376802903603</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2895745887097694</v>
+        <v>0.7108428339446126</v>
       </c>
       <c r="C4">
-        <v>1.240496959324251</v>
+        <v>0.8754549345972755</v>
       </c>
       <c r="D4">
-        <v>7.595578471819104</v>
+        <v>4.635275670739081</v>
       </c>
       <c r="E4">
-        <v>2.756007705326512</v>
+        <v>2.152969036177502</v>
       </c>
       <c r="F4">
-        <v>2.802350277210764</v>
+        <v>2.077908663797673</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3238621390752919</v>
+        <v>0.2895745887097694</v>
       </c>
       <c r="C5">
-        <v>1.24951236653669</v>
+        <v>1.240496959324251</v>
       </c>
       <c r="D5">
-        <v>8.076301587591825</v>
+        <v>7.595578471819104</v>
       </c>
       <c r="E5">
-        <v>2.841883457777927</v>
+        <v>2.756007705326512</v>
       </c>
       <c r="F5">
-        <v>2.886823850443001</v>
+        <v>2.802350277210764</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3759505404624885</v>
+        <v>0.3238621390752919</v>
       </c>
       <c r="C6">
-        <v>1.26396980525482</v>
+        <v>1.24951236653669</v>
       </c>
       <c r="D6">
-        <v>7.453626575147394</v>
+        <v>8.076301587591825</v>
       </c>
       <c r="E6">
-        <v>2.730133069128205</v>
+        <v>2.841883457777927</v>
       </c>
       <c r="F6">
-        <v>2.7648986388152</v>
+        <v>2.886823850443001</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.341963470112216</v>
+        <v>0.3759505404624885</v>
       </c>
       <c r="C7">
-        <v>1.389240385587007</v>
+        <v>1.26396980525482</v>
       </c>
       <c r="D7">
-        <v>7.894718527440571</v>
+        <v>7.453626575147394</v>
       </c>
       <c r="E7">
-        <v>2.809754175624724</v>
+        <v>2.730133069128205</v>
       </c>
       <c r="F7">
-        <v>2.851546062215722</v>
+        <v>2.7648986388152</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2502161759457917</v>
+        <v>0.341963470112216</v>
       </c>
       <c r="C8">
-        <v>1.450552389820832</v>
+        <v>1.389240385587007</v>
       </c>
       <c r="D8">
-        <v>8.661950858152869</v>
+        <v>7.894718527440571</v>
       </c>
       <c r="E8">
-        <v>2.943119239540401</v>
+        <v>2.809754175624724</v>
       </c>
       <c r="F8">
-        <v>2.998369880143227</v>
+        <v>2.851546062215722</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.298823989417038</v>
+        <v>0.2502161759457917</v>
       </c>
       <c r="C9">
-        <v>1.462549152856695</v>
+        <v>1.450552389820832</v>
       </c>
       <c r="D9">
-        <v>8.060417993749848</v>
+        <v>8.661950858152869</v>
       </c>
       <c r="E9">
-        <v>2.839087528370664</v>
+        <v>2.943119239540401</v>
       </c>
       <c r="F9">
-        <v>2.886770852395387</v>
+        <v>2.998369880143227</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2664666779633617</v>
+        <v>0.298823989417038</v>
       </c>
       <c r="C10">
-        <v>1.439819604875121</v>
+        <v>1.462549152856695</v>
       </c>
       <c r="D10">
-        <v>8.41458104426475</v>
+        <v>8.060417993749848</v>
       </c>
       <c r="E10">
-        <v>2.900789727688781</v>
+        <v>2.839087528370664</v>
       </c>
       <c r="F10">
-        <v>2.953443758313014</v>
+        <v>2.886770852395387</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1601520388162171</v>
+        <v>0.2664666779633617</v>
       </c>
       <c r="C11">
-        <v>1.336129065843578</v>
+        <v>1.439819604875121</v>
       </c>
       <c r="D11">
-        <v>8.162906777384929</v>
+        <v>8.41458104426475</v>
       </c>
       <c r="E11">
-        <v>2.857080113924867</v>
+        <v>2.900789727688781</v>
       </c>
       <c r="F11">
-        <v>2.916699070887114</v>
+        <v>2.953443758313014</v>
       </c>
       <c r="G11">
         <v>23</v>
